--- a/JSP_dataset_re_entry.xlsx
+++ b/JSP_dataset_re_entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickvibild/repo/factory_poblem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F15E2E5-B5F3-C543-B57F-CAF7834AEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8DCE43-F935-F34E-B766-078BDBE83E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1642,11 +1642,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B2:K11" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1679,15 +1679,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1717,15 +1717,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
@@ -1756,23 +1756,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1796,23 +1796,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
@@ -1837,31 +1837,31 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1879,35 +1879,35 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1922,39 +1922,39 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2057,7 +2057,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/JSP_dataset_re_entry.xlsx
+++ b/JSP_dataset_re_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickvibild/repo/factory_poblem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\KAIST\Kurse Fall 2022\IE536_Scheduling Theory and Application\Term Project\factory_poblem-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8DCE43-F935-F34E-B766-078BDBE83E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993069A9-7E59-404F-9BCD-EFC52ECCC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="52" windowWidth="7583" windowHeight="10433" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="4" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,16 +564,16 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="12.46484375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -614,7 +614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -901,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -942,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1040,13 +1040,13 @@
       <selection activeCell="L2" sqref="L2:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="12.46484375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1507,10 +1507,10 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="O13" s="6"/>
@@ -1528,9 +1528,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1636,17 +1636,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B2:K11" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>9</v>
+        <f t="shared" ref="B4:J11" ca="1" si="0">RANDBETWEEN(0,20)</f>
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1673,21 +1673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1711,26 +1711,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -1750,29 +1750,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1790,33 +1790,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1831,37 +1831,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1873,41 +1873,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1916,45 +1916,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1974,9 +1974,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2057,12 +2057,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>2112</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2">
         <v>21221</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
